--- a/Team-Data/2013-14/4-12-2013-14.xlsx
+++ b/Team-Data/2013-14/4-12-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>0.463</v>
+        <v>0.456</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -696,7 +763,7 @@
         <v>25.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
@@ -723,7 +790,7 @@
         <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
@@ -741,10 +808,10 @@
         <v>101</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -768,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -777,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -798,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>25</v>
@@ -819,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>0.313</v>
+        <v>0.304</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M3" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O3" t="n">
         <v>16.1</v>
@@ -887,19 +954,19 @@
         <v>20.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
         <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V3" t="n">
         <v>15.4</v>
@@ -911,7 +978,7 @@
         <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>21.3</v>
@@ -920,16 +987,16 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.3</v>
+        <v>-4.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
@@ -941,7 +1008,7 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -968,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS3" t="n">
         <v>24</v>
@@ -980,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1183,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,10 +1297,10 @@
         <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
@@ -1245,13 +1312,13 @@
         <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R5" t="n">
         <v>9.4</v>
@@ -1266,31 +1333,31 @@
         <v>21.6</v>
       </c>
       <c r="V5" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W5" t="n">
         <v>6.1</v>
       </c>
       <c r="X5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
         <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1302,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1311,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>25</v>
@@ -1350,16 +1417,16 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1523,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
         <v>19</v>
@@ -1541,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
@@ -1594,10 +1661,10 @@
         <v>36.9</v>
       </c>
       <c r="J7" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1612,10 +1679,10 @@
         <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
         <v>12</v>
@@ -1633,7 +1700,7 @@
         <v>14.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
         <v>3.7</v>
@@ -1651,7 +1718,7 @@
         <v>98</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1696,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>14</v>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1776,10 +1843,10 @@
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
         <v>8.800000000000001</v>
@@ -1788,10 +1855,10 @@
         <v>22.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
         <v>21.3</v>
@@ -1809,13 +1876,13 @@
         <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>4.3</v>
@@ -1830,7 +1897,7 @@
         <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="AC8" t="n">
         <v>2.4</v>
@@ -1839,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1869,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
         <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.45</v>
+        <v>0.443</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J9" t="n">
         <v>86</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
         <v>8.6</v>
@@ -1970,7 +2037,7 @@
         <v>23.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O9" t="n">
         <v>18.8</v>
@@ -1979,16 +2046,16 @@
         <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>22.4</v>
@@ -2006,7 +2073,7 @@
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
@@ -2015,10 +2082,10 @@
         <v>104.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2260,10 +2327,10 @@
         <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
@@ -2275,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2430,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" t="n">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.663</v>
+        <v>0.658</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2519,22 +2586,22 @@
         <v>0.358</v>
       </c>
       <c r="O12" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="P12" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T12" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.4</v>
@@ -2543,7 +2610,7 @@
         <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
         <v>5.7</v>
@@ -2561,10 +2628,10 @@
         <v>107.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2603,19 +2670,19 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
       </c>
       <c r="AF13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2767,7 +2834,7 @@
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>24</v>
@@ -2776,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2871,25 +2938,25 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M14" t="n">
         <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
@@ -2901,7 +2968,7 @@
         <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.9</v>
@@ -2910,25 +2977,25 @@
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
@@ -3000,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3134,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
         <v>54</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.675</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3423,37 +3490,37 @@
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
         <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>7.7</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="U17" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3468,13 +3535,13 @@
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,10 +3553,10 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3513,22 +3580,22 @@
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" t="n">
-        <v>0.188</v>
+        <v>0.19</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
@@ -3605,19 +3672,19 @@
         <v>6.7</v>
       </c>
       <c r="M18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P18" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
@@ -3632,13 +3699,13 @@
         <v>21.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W18" t="n">
         <v>6.6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
         <v>5.1</v>
@@ -3650,13 +3717,13 @@
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,13 +3735,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3701,7 +3768,7 @@
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
         <v>23</v>
@@ -3719,7 +3786,7 @@
         <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>3</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3856,7 +3923,7 @@
         <v>7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,16 +4027,16 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.373</v>
@@ -3990,7 +4057,7 @@
         <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
@@ -4002,13 +4069,13 @@
         <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
         <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA20" t="n">
         <v>20.3</v>
@@ -4017,10 +4084,10 @@
         <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4032,13 +4099,13 @@
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -4062,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4074,7 +4141,7 @@
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4089,7 +4156,7 @@
         <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4220,7 +4287,7 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4438,10 +4505,10 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG23" t="n">
         <v>28</v>
@@ -4623,7 +4690,7 @@
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" t="n">
-        <v>0.213</v>
+        <v>0.215</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
@@ -4688,7 +4755,7 @@
         <v>37.8</v>
       </c>
       <c r="J24" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.433</v>
@@ -4697,19 +4764,19 @@
         <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.311</v>
+        <v>0.313</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
         <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="R24" t="n">
         <v>11.7</v>
@@ -4724,7 +4791,7 @@
         <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W24" t="n">
         <v>9.300000000000001</v>
@@ -4736,19 +4803,19 @@
         <v>6.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA24" t="n">
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.9</v>
+        <v>-11</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4766,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4787,7 +4854,7 @@
         <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="n">
         <v>47</v>
       </c>
       <c r="F25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0.588</v>
+        <v>0.595</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,7 +4937,7 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.463</v>
@@ -4879,10 +4946,10 @@
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O25" t="n">
         <v>18.7</v>
@@ -4897,10 +4964,10 @@
         <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
         <v>19.2</v>
@@ -4909,7 +4976,7 @@
         <v>15.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>4.5</v>
@@ -4924,22 +4991,22 @@
         <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4969,10 +5036,10 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,7 +5051,7 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -4993,7 +5060,7 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>23</v>
@@ -5002,7 +5069,7 @@
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.334</v>
@@ -5252,25 +5319,25 @@
         <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U27" t="n">
         <v>18.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W27" t="n">
         <v>7.2</v>
@@ -5282,19 +5349,19 @@
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA27" t="n">
         <v>23.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5333,13 +5400,13 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>5</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
@@ -5673,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5786,19 +5853,19 @@
         <v>0.442</v>
       </c>
       <c r="L30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M30" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.746</v>
@@ -5831,7 +5898,7 @@
         <v>20.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB30" t="n">
         <v>94.40000000000001</v>
@@ -5840,16 +5907,16 @@
         <v>-7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>28</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" t="n">
         <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.525</v>
+        <v>0.519</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
@@ -5974,16 +6041,16 @@
         <v>20.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O31" t="n">
         <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
@@ -6004,25 +6071,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6070,13 +6137,13 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-12-2013-14</t>
+          <t>2014-04-12</t>
         </is>
       </c>
     </row>
